--- a/AccountData.xlsx
+++ b/AccountData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Account Number</t>
   </si>
@@ -23,13 +23,19 @@
     <t>Available Balance</t>
   </si>
   <si>
-    <t>21003</t>
+    <t>19671</t>
   </si>
   <si>
-    <t>$400.00</t>
+    <t>$10400.00</t>
   </si>
   <si>
-    <t>21114</t>
+    <t>21780</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>22668</t>
   </si>
   <si>
     <t>$200.00</t>
@@ -38,10 +44,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>$600.00</t>
+    <t>$10600.00</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -86,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -133,7 +139,18 @@
         <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>9</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
